--- a/scene/记录表.xlsx
+++ b/scene/记录表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD4C7F-B75F-9548-B114-706A40414D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,14 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>情景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>赖富俊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -37,18 +30,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>文件编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>低压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>王佳欣</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,14 +59,34 @@
   </si>
   <si>
     <t>康文博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,42 +421,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>111</v>
@@ -464,15 +465,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>111</v>
@@ -481,15 +482,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>117</v>
@@ -498,15 +499,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>117</v>
@@ -515,15 +516,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>112</v>
@@ -532,15 +533,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>112</v>
@@ -549,15 +550,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>131</v>
@@ -566,15 +567,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>131</v>
@@ -583,15 +584,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>130</v>
@@ -600,15 +601,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>130</v>
@@ -617,15 +618,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>120</v>
@@ -634,15 +635,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -651,15 +652,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>121</v>
@@ -668,15 +669,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>121</v>
@@ -685,15 +686,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>122</v>
@@ -702,15 +703,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>122</v>
@@ -719,15 +720,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>121</v>
@@ -736,15 +737,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>121</v>
@@ -753,15 +754,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
       </c>
       <c r="D20">
         <v>155</v>
@@ -770,15 +771,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
         <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
       </c>
       <c r="D21">
         <v>155</v>
@@ -787,15 +788,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>153</v>
@@ -804,15 +805,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>153</v>
@@ -821,15 +822,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>153</v>
@@ -838,15 +839,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>143</v>
@@ -855,15 +856,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>143</v>

--- a/scene/记录表.xlsx
+++ b/scene/记录表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11326595-F588-1045-92BB-E6245C7492EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE5C1EE-E71E-994F-92F5-6AFE92F5C518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="840" windowWidth="13860" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="840" windowWidth="13860" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="22">
   <si>
     <t>赖富俊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="159" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="159" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1588,6 +1588,151 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>125</v>
+      </c>
+      <c r="E50">
+        <v>70</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51">
+        <v>122</v>
+      </c>
+      <c r="E51">
+        <v>69</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>109</v>
+      </c>
+      <c r="E52">
+        <v>63</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>112</v>
+      </c>
+      <c r="E53">
+        <v>64</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>104</v>
+      </c>
+      <c r="E54">
+        <v>64</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scene/记录表.xlsx
+++ b/scene/记录表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE5C1EE-E71E-994F-92F5-6AFE92F5C518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD573F9-F37B-B54E-8C36-AB4B76000022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="840" windowWidth="13860" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="840" windowWidth="13860" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
   <si>
     <t>赖富俊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>高压C服药前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压A服药前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压D服药后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压A饭前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压A饭后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压B饭前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压B饭后</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="159" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="159" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1593,7 +1617,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -1616,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -1639,7 +1663,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -1662,7 +1686,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -1685,7 +1709,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -1707,30 +1731,322 @@
       <c r="A55">
         <v>55</v>
       </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>121</v>
+      </c>
+      <c r="E55">
+        <v>75</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
         <v>56</v>
       </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>126</v>
+      </c>
+      <c r="E56">
+        <v>67</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
         <v>57</v>
       </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>110</v>
+      </c>
+      <c r="E57">
+        <v>67</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
         <v>58</v>
       </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>113</v>
+      </c>
+      <c r="E58">
+        <v>67</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
         <v>59</v>
       </c>
+      <c r="B59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>109</v>
+      </c>
+      <c r="E59">
+        <v>67</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
         <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60">
+        <v>109</v>
+      </c>
+      <c r="E60">
+        <v>76</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61">
+        <v>117</v>
+      </c>
+      <c r="E61">
+        <v>75</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62">
+        <v>117</v>
+      </c>
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>106</v>
+      </c>
+      <c r="E63">
+        <v>64</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64">
+        <v>110</v>
+      </c>
+      <c r="E64">
+        <v>66</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65">
+        <v>101</v>
+      </c>
+      <c r="E65">
+        <v>68</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>134</v>
+      </c>
+      <c r="E66">
+        <v>82</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67">
+        <v>128</v>
+      </c>
+      <c r="E67">
+        <v>82</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>144</v>
+      </c>
+      <c r="E68">
+        <v>92</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/scene/记录表.xlsx
+++ b/scene/记录表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD573F9-F37B-B54E-8C36-AB4B76000022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260F66A-5003-6849-B4F1-2F0C069426D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="840" windowWidth="13860" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
   <si>
     <t>赖富俊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="159" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:C68"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="159" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2049,6 +2049,190 @@
         <v>1</v>
       </c>
     </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69">
+        <v>122</v>
+      </c>
+      <c r="E69">
+        <v>77</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70">
+        <v>117</v>
+      </c>
+      <c r="E70">
+        <v>79</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>113</v>
+      </c>
+      <c r="E71">
+        <v>71</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>131</v>
+      </c>
+      <c r="E72">
+        <v>78</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>122</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <v>121</v>
+      </c>
+      <c r="E74">
+        <v>68</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>104</v>
+      </c>
+      <c r="E75">
+        <v>62</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76">
+        <v>109</v>
+      </c>
+      <c r="E76">
+        <v>62</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scene/记录表.xlsx
+++ b/scene/记录表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E260F66A-5003-6849-B4F1-2F0C069426D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CA84C7-DF7A-0D4E-B857-452866564A94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="840" windowWidth="13860" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="30">
   <si>
     <t>赖富俊</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>高压B饭后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压D服药前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压B服药后</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="159" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2233,6 +2241,259 @@
         <v>1</v>
       </c>
     </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>137</v>
+      </c>
+      <c r="E77">
+        <v>86</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>135</v>
+      </c>
+      <c r="E78">
+        <v>96</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79">
+        <v>114</v>
+      </c>
+      <c r="E79">
+        <v>74</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>112</v>
+      </c>
+      <c r="E80">
+        <v>82</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81">
+        <v>138</v>
+      </c>
+      <c r="E81">
+        <v>83</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>113</v>
+      </c>
+      <c r="E82">
+        <v>75</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>116</v>
+      </c>
+      <c r="E83">
+        <v>66</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84">
+        <v>109</v>
+      </c>
+      <c r="E84">
+        <v>63</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>115</v>
+      </c>
+      <c r="E85">
+        <v>65</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>115</v>
+      </c>
+      <c r="E86">
+        <v>75</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>110</v>
+      </c>
+      <c r="E87">
+        <v>71</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
